--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>Pole</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Nebbiolo</t>
+  </si>
+  <si>
+    <t>Arneis</t>
+  </si>
+  <si>
+    <t>Dolcetto</t>
   </si>
 </sst>
 </file>
@@ -394,13 +400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +419,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,8 +439,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,8 +459,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,6 +477,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -463,13 +573,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +592,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,8 +612,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,8 +632,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -522,6 +650,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -532,13 +746,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +765,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,10 +783,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,20 +803,112 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>350</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>296</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>254</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -601,13 +919,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +938,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,8 +958,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,8 +978,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -660,6 +996,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -670,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,8 +1111,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,8 +1131,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,8 +1151,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -729,6 +1169,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -739,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,46 +1284,150 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>172</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>478</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>173</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -808,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,8 +1457,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -841,8 +1477,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -855,8 +1497,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -867,6 +1515,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -877,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,8 +1630,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,8 +1650,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -924,8 +1670,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -936,6 +1688,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -946,13 +1784,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,8 +1803,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -979,8 +1823,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -993,8 +1843,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1005,6 +1861,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -1015,13 +1957,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,36 +1976,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1074,7 +2034,93 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>177</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>210</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>264</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>189</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>229</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1084,13 +2130,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +2149,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1117,8 +2169,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1131,8 +2189,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1143,6 +2207,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -1153,13 +2303,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +2322,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1186,8 +2342,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1200,8 +2362,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1212,6 +2380,92 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D4">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -764,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C4">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>Pole</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Nebbiolo</t>
+  </si>
+  <si>
+    <t>Arneis</t>
+  </si>
+  <si>
+    <t>Cortese</t>
   </si>
 </sst>
 </file>
@@ -394,13 +400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +419,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,8 +439,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,8 +459,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,6 +477,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -463,13 +493,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +512,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,8 +532,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,8 +552,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -522,6 +570,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -532,13 +586,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,36 +605,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -588,9 +660,15 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>115</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -601,13 +679,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +698,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,8 +718,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,8 +738,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -660,6 +756,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -670,13 +772,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,8 +791,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,8 +811,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,8 +831,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -729,6 +849,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -739,13 +865,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,36 +884,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -795,9 +939,15 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>125</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -808,13 +958,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,8 +977,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -841,8 +997,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -855,8 +1017,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -867,6 +1035,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -877,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,8 +1070,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,8 +1090,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -924,8 +1110,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -936,6 +1128,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -946,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,8 +1163,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -979,8 +1183,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -993,8 +1203,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1005,6 +1221,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1015,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,13 +1256,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1048,8 +1276,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1057,23 +1291,35 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1084,13 +1330,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +1349,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1117,8 +1369,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1131,8 +1389,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1143,6 +1407,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1153,13 +1423,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1442,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1186,8 +1462,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1200,8 +1482,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1212,6 +1500,12 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
   <si>
     <t>Pole</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Nebbiolo</t>
-  </si>
-  <si>
-    <t>Arneis</t>
-  </si>
-  <si>
-    <t>Cortese</t>
   </si>
 </sst>
 </file>
@@ -400,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,14 +413,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,14 +427,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -459,14 +441,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,12 +453,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -493,13 +463,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,14 +482,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,14 +496,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,14 +510,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -570,12 +522,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -586,13 +532,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,70 +551,46 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>201</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -679,13 +601,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,14 +620,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -718,14 +634,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -738,14 +648,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -756,12 +660,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -772,13 +670,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,14 +689,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,14 +703,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -831,14 +717,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -849,12 +729,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -865,13 +739,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,14 +758,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -899,24 +767,18 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -924,30 +786,18 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -958,13 +808,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,14 +827,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -997,14 +841,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1017,14 +855,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1035,12 +867,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1051,13 +877,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,14 +896,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1090,14 +910,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1110,14 +924,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1128,12 +936,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1144,13 +946,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,14 +965,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1183,14 +979,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1203,14 +993,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1221,12 +1005,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1237,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,14 +1034,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1271,55 +1043,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>102</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1330,13 +1084,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,14 +1103,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,14 +1117,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1389,14 +1131,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1407,12 +1143,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -1423,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,14 +1172,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1462,14 +1186,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1482,14 +1200,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1500,12 +1212,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Tabele/rozwiazanie_pocz.xlsx
+++ b/Wyniki/Tabele/rozwiazanie_pocz.xlsx
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>536</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
